--- a/biology/Médecine/Bronchiolite_oblitérante/Bronchiolite_oblitérante.xlsx
+++ b/biology/Médecine/Bronchiolite_oblitérante/Bronchiolite_oblitérante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bronchiolite_oblit%C3%A9rante</t>
+          <t>Bronchiolite_oblitérante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Initialement décrite comme une complication des transplantations cœur-poumon, la bronchiolite oblitérante ou bronchiolite des greffés est en fait une complication potentielle de tous les types de transplantation pulmonaire (bipulmonaire, unipulmonaire, cœur-poumon).
 Elle peut également résulter de l'intoxication par le diacétyle (arôme alimentaire au goût de beurre) des travailleurs des usines de popcorn.
 En 2015, une étude de l'Université de Harvard (sujette à controverse) met en garde les vapoteurs de l'éventuelle présence de diacétyle dans certains liquides à vapoter destinés aux cigarettes électroniques en indiquant qu'ils seraient potentiellement déclencheurs de bronchiolite oblitérante.
-En 2019, une nouvelle publication est réalisée par le Canadian Medical Association Journal[2], décrivant un lien avec le vapotage[3],[4].
+En 2019, une nouvelle publication est réalisée par le Canadian Medical Association Journal, décrivant un lien avec le vapotage,.
 </t>
         </is>
       </c>
